--- a/2D_values.xlsx
+++ b/2D_values.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/milanjanovic/Documents/GitHub/AK9EV_Zapocet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F881BD-6654-904D-A830-1420E776DB1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53AC1532-6910-2749-8DDB-DC2C3C81F253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16700" xr2:uid="{9C3F7FA4-B23E-4849-BCD7-0D412141E00B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="111">
   <si>
     <t>8.365491588009284e-29</t>
   </si>
@@ -179,15 +179,6 @@
     <t>0.6999974388256918</t>
   </si>
   <si>
-    <t>0.5170938700902623</t>
-  </si>
-  <si>
-    <t>0.5000000000000001</t>
-  </si>
-  <si>
-    <t>0.6665441567572906</t>
-  </si>
-  <si>
     <t>1.0022228653718892</t>
   </si>
   <si>
@@ -233,15 +224,6 @@
     <t>8.881784197001252e-17</t>
   </si>
   <si>
-    <t>9.227535779934353e-84</t>
-  </si>
-  <si>
-    <t>4.987678672318133e-08</t>
-  </si>
-  <si>
-    <t>3.0394277527267434e-47</t>
-  </si>
-  <si>
     <t>1.1306945030520477</t>
   </si>
   <si>
@@ -260,15 +242,6 @@
     <t>-0.1838257045120501</t>
   </si>
   <si>
-    <t>0.00573115758758197</t>
-  </si>
-  <si>
-    <t>2.368475785866995e-16</t>
-  </si>
-  <si>
-    <t>2.9605947323337486e-16</t>
-  </si>
-  <si>
     <t>-4.958789961309575</t>
   </si>
   <si>
@@ -326,9 +299,6 @@
     <t>0.8682965112513785</t>
   </si>
   <si>
-    <t>0.672172437974893</t>
-  </si>
-  <si>
     <t>1.2774563605464417</t>
   </si>
   <si>
@@ -344,29 +314,68 @@
     <t>0.13891233515153656</t>
   </si>
   <si>
-    <t>1.5374975927388863</t>
-  </si>
-  <si>
     <t>1.150969627258676</t>
   </si>
   <si>
     <t>-0.19617245077601858</t>
   </si>
   <si>
-    <t>0.14502021283400537</t>
-  </si>
-  <si>
     <t>-4.958624590160698</t>
   </si>
   <si>
     <t>-0.9999862460676529</t>
+  </si>
+  <si>
+    <t>1.127781403326488</t>
+  </si>
+  <si>
+    <t>2.717409243974094</t>
+  </si>
+  <si>
+    <t>0.8622978494808589</t>
+  </si>
+  <si>
+    <t>4.005514985991693</t>
+  </si>
+  <si>
+    <t>3.2824988134847737</t>
+  </si>
+  <si>
+    <t>4.440892098500626e-16</t>
+  </si>
+  <si>
+    <t>3.549004904830234</t>
+  </si>
+  <si>
+    <t>9.177843670234628e-16</t>
+  </si>
+  <si>
+    <t>5.335388683859815</t>
+  </si>
+  <si>
+    <t>3.7034003253110144</t>
+  </si>
+  <si>
+    <t>-1.9171950645983749</t>
+  </si>
+  <si>
+    <t>-1.696468056007581</t>
+  </si>
+  <si>
+    <t>-1.9574630764122953</t>
+  </si>
+  <si>
+    <t>-1.2556413248744098</t>
+  </si>
+  <si>
+    <t>-1.7493148635166016</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -377,6 +386,11 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Menlo"/>
       <family val="2"/>
     </font>
@@ -401,10 +415,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -722,7 +737,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="E25" sqref="A1:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -738,7 +753,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -748,7 +763,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -765,7 +780,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -778,11 +793,11 @@
       <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -799,7 +814,7 @@
         <v>15</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -816,7 +831,7 @@
         <v>19</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -833,7 +848,7 @@
         <v>22</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -850,7 +865,7 @@
         <v>26</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -867,7 +882,7 @@
         <v>29</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -884,7 +899,7 @@
         <v>33</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -901,7 +916,7 @@
         <v>37</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -935,7 +950,7 @@
         <v>42</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -952,24 +967,24 @@
         <v>46</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -977,7 +992,7 @@
         <v>20</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>20</v>
@@ -986,58 +1001,58 @@
         <v>20</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="E16" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="E17" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -1045,33 +1060,33 @@
         <v>38</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -1079,84 +1094,84 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/2D_values.xlsx
+++ b/2D_values.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/milanjanovic/Documents/GitHub/AK9EV_Zapocet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53AC1532-6910-2749-8DDB-DC2C3C81F253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9812BA3-F3B7-8643-8A73-E79C24B1DD18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16700" xr2:uid="{9C3F7FA4-B23E-4849-BCD7-0D412141E00B}"/>
   </bookViews>
@@ -36,89 +36,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="111">
-  <si>
-    <t>8.365491588009284e-29</t>
-  </si>
-  <si>
-    <t>0.11986929289208637</t>
-  </si>
-  <si>
-    <t>8.203606763741887e-17</t>
-  </si>
-  <si>
-    <t>4.037633668666831e-163</t>
-  </si>
-  <si>
-    <t>1.5125367454958412e-28</t>
-  </si>
-  <si>
-    <t>0.014270968135521457</t>
-  </si>
-  <si>
-    <t>3.9284692741992e-16</t>
-  </si>
-  <si>
-    <t>8.096919782081991e-163</t>
-  </si>
-  <si>
-    <t>1.973159193139569e-55</t>
-  </si>
-  <si>
-    <t>0.010143974893878516</t>
-  </si>
-  <si>
-    <t>6.351596166126357e-32</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="117">
   <si>
     <t>5e-324</t>
   </si>
   <si>
-    <t>-0.9999884230336309</t>
-  </si>
-  <si>
-    <t>-0.9999889617852282</t>
-  </si>
-  <si>
-    <t>-0.9999999999999998</t>
-  </si>
-  <si>
-    <t>-0.9992274746221984</t>
-  </si>
-  <si>
-    <t>-0.9999964790903486</t>
-  </si>
-  <si>
-    <t>-0.9997592215921274</t>
-  </si>
-  <si>
     <t>-1.0</t>
   </si>
   <si>
-    <t>-0.9993936472236097</t>
-  </si>
-  <si>
     <t>1.0</t>
   </si>
   <si>
-    <t>1.0433227478662068</t>
-  </si>
-  <si>
     <t>1.0000000000000002</t>
   </si>
   <si>
-    <t>2.678734956406163e-43</t>
-  </si>
-  <si>
-    <t>3.985680795960238e-43</t>
-  </si>
-  <si>
-    <t>4.795258154213328e-43</t>
-  </si>
-  <si>
-    <t>2.6787349564063987e-43</t>
-  </si>
-  <si>
     <t>0.5</t>
   </si>
   <si>
@@ -167,33 +98,6 @@
     <t>-0.9866348542539946</t>
   </si>
   <si>
-    <t>2.9836414161674e-26</t>
-  </si>
-  <si>
-    <t>0.10490354849377016</t>
-  </si>
-  <si>
-    <t>0.03333333333333346</t>
-  </si>
-  <si>
-    <t>0.6999974388256918</t>
-  </si>
-  <si>
-    <t>1.0022228653718892</t>
-  </si>
-  <si>
-    <t>-19999.0</t>
-  </si>
-  <si>
-    <t>-19920.08845516307</t>
-  </si>
-  <si>
-    <t>-19784.86040242208</t>
-  </si>
-  <si>
-    <t>-19998.999999977383</t>
-  </si>
-  <si>
     <t>6.035413711682241e-15</t>
   </si>
   <si>
@@ -263,27 +167,6 @@
     <t>-0.9994510909987887</t>
   </si>
   <si>
-    <t>0.15705566478139285</t>
-  </si>
-  <si>
-    <t>0.5418426714721354</t>
-  </si>
-  <si>
-    <t>0.10207455178501208</t>
-  </si>
-  <si>
-    <t>-0.999985493651465</t>
-  </si>
-  <si>
-    <t>-0.9999900156333654</t>
-  </si>
-  <si>
-    <t>1.1775649167312243</t>
-  </si>
-  <si>
-    <t>2.8242642473670393e-43</t>
-  </si>
-  <si>
     <t>0.6498169358419955</t>
   </si>
   <si>
@@ -296,15 +179,6 @@
     <t>-0.9954015546497604</t>
   </si>
   <si>
-    <t>0.8682965112513785</t>
-  </si>
-  <si>
-    <t>1.2774563605464417</t>
-  </si>
-  <si>
-    <t>-19980.309625223104</t>
-  </si>
-  <si>
     <t>0.30260118490526344</t>
   </si>
   <si>
@@ -369,6 +243,150 @@
   </si>
   <si>
     <t>-1.7493148635166016</t>
+  </si>
+  <si>
+    <t>5.121470438618659e-27</t>
+  </si>
+  <si>
+    <t>2.1833539577679884</t>
+  </si>
+  <si>
+    <t>2.1004676028178977e-16</t>
+  </si>
+  <si>
+    <t>1.6354874630740615</t>
+  </si>
+  <si>
+    <t>0.37551128320544735</t>
+  </si>
+  <si>
+    <t>0.010898669724519815</t>
+  </si>
+  <si>
+    <t>0.056856276960122944</t>
+  </si>
+  <si>
+    <t>0.008464503840667341</t>
+  </si>
+  <si>
+    <t>0.07111002610531587</t>
+  </si>
+  <si>
+    <t>0.03959053042001829</t>
+  </si>
+  <si>
+    <t>1.499759782661857e-32</t>
+  </si>
+  <si>
+    <t>0.22908206379871346</t>
+  </si>
+  <si>
+    <t>1.0133607492206776e-30</t>
+  </si>
+  <si>
+    <t>0.39971967759896393</t>
+  </si>
+  <si>
+    <t>0.023717079023863386</t>
+  </si>
+  <si>
+    <t>-193.55668135027398</t>
+  </si>
+  <si>
+    <t>-140.27463028943296</t>
+  </si>
+  <si>
+    <t>-138.78765869262804</t>
+  </si>
+  <si>
+    <t>-141.4101629240735</t>
+  </si>
+  <si>
+    <t>-142.3648305813941</t>
+  </si>
+  <si>
+    <t>1.5569242359066324</t>
+  </si>
+  <si>
+    <t>2303.3473144577115</t>
+  </si>
+  <si>
+    <t>4.030160283911407</t>
+  </si>
+  <si>
+    <t>237.2940228913106</t>
+  </si>
+  <si>
+    <t>8.230503998800492</t>
+  </si>
+  <si>
+    <t>1.0285912741143772e-52</t>
+  </si>
+  <si>
+    <t>0.6260342960793589</t>
+  </si>
+  <si>
+    <t>2.4752715795871375e-31</t>
+  </si>
+  <si>
+    <t>1.1390051727985975</t>
+  </si>
+  <si>
+    <t>0.05030620295238927</t>
+  </si>
+  <si>
+    <t>0.14695781492909193</t>
+  </si>
+  <si>
+    <t>0.04327894662874065</t>
+  </si>
+  <si>
+    <t>0.21364786748669784</t>
+  </si>
+  <si>
+    <t>0.16196098779031257</t>
+  </si>
+  <si>
+    <t>0.0006101209723745411</t>
+  </si>
+  <si>
+    <t>0.006868777222747127</t>
+  </si>
+  <si>
+    <t>0.03340345109395289</t>
+  </si>
+  <si>
+    <t>0.026035617342062833</t>
+  </si>
+  <si>
+    <t>710.6958360968912</t>
+  </si>
+  <si>
+    <t>721.7265108469215</t>
+  </si>
+  <si>
+    <t>720.3653656068469</t>
+  </si>
+  <si>
+    <t>721.9709165489081</t>
+  </si>
+  <si>
+    <t>717.2495438778088</t>
+  </si>
+  <si>
+    <t>3.697785493223493e-32</t>
+  </si>
+  <si>
+    <t>314.63046076139705</t>
+  </si>
+  <si>
+    <t>8.903527910583526e-29</t>
+  </si>
+  <si>
+    <t>6.061102242565902e-27</t>
+  </si>
+  <si>
+    <t>0.458475230639286</t>
   </si>
 </sst>
 </file>
@@ -418,8 +436,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -737,7 +755,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="A1:E25"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -751,427 +769,427 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>69</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>72</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>74</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>79</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>11</v>
+        <v>81</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>22</v>
+        <v>96</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>104</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>30</v>
+        <v>107</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>31</v>
+        <v>108</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>33</v>
+        <v>110</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>34</v>
+        <v>112</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>35</v>
+        <v>113</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>36</v>
+        <v>114</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>37</v>
+        <v>115</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>85</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>96</v>
+        <v>15</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>98</v>
+        <v>15</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>90</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="B20" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>105</v>
+      <c r="D20" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>110</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>94</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
